--- a/Supplementary_Table_1.xlsx
+++ b/Supplementary_Table_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qsong1/UFL Dropbox/Qianqian Song/UF_Moved/Projects_2023/Bo_project/SpaIM_project/update_Aug18/NC_resubmission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SpaIM\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FEA22F-CA6E-FF48-9E8E-0C57CBCA2979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFD23D9-C0DA-4158-A08A-8E665035B529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image-based" sheetId="2" r:id="rId1"/>
@@ -19,20 +19,7 @@
   <definedNames>
     <definedName name="OLE_LINK2" localSheetId="0">'Image-based'!$E$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -594,9 +581,6 @@
     <t>https://nanostring.com/resources/smi-ffpe-dataset-lung9-rep1-data/</t>
   </si>
   <si>
-    <t>Dataset25_NanoString_Lung9-rep1</t>
-  </si>
-  <si>
     <t>https://nanostring.com/resources/smi-ffpe-dataset-lung9-rep2-data/</t>
   </si>
   <si>
@@ -802,17 +786,21 @@
   </si>
   <si>
     <t>Dataset39_Visium</t>
+  </si>
+  <si>
+    <t>Dataset25_NanoString_Lung9-rep2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -832,7 +820,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -848,6 +836,12 @@
       <color rgb="FF222222"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -983,16 +977,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,8 +1003,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1305,13 +1299,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,41 +1328,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1388,10 +1382,10 @@
         <v>103</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1404,7 +1398,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1424,10 +1418,10 @@
         <v>108</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1440,7 +1434,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -1460,10 +1454,10 @@
         <v>113</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1476,7 +1470,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>5</v>
       </c>
@@ -1496,10 +1490,10 @@
         <v>113</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1512,7 +1506,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>6</v>
       </c>
@@ -1532,10 +1526,10 @@
         <v>124</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1548,7 +1542,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>7</v>
       </c>
@@ -1568,10 +1562,10 @@
         <v>130</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1584,7 +1578,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>8</v>
       </c>
@@ -1604,10 +1598,10 @@
         <v>135</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>9</v>
       </c>
@@ -1627,10 +1621,10 @@
         <v>137</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1641,7 +1635,7 @@
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>10</v>
       </c>
@@ -1661,10 +1655,10 @@
         <v>142</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1677,7 +1671,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>11</v>
       </c>
@@ -1697,10 +1691,10 @@
         <v>142</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1713,7 +1707,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>12</v>
       </c>
@@ -1733,10 +1727,10 @@
         <v>149</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1747,7 +1741,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>13</v>
       </c>
@@ -1767,10 +1761,10 @@
         <v>152</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="98" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1781,7 +1775,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>14</v>
       </c>
@@ -1801,10 +1795,10 @@
         <v>156</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1815,7 +1809,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>15</v>
       </c>
@@ -1835,10 +1829,10 @@
         <v>160</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="126" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1851,7 +1845,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>16</v>
       </c>
@@ -1871,10 +1865,10 @@
         <v>152</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1887,7 +1881,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>17</v>
       </c>
@@ -1907,10 +1901,10 @@
         <v>152</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1923,7 +1917,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>18</v>
       </c>
@@ -1943,10 +1937,10 @@
         <v>170</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1959,7 +1953,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>19</v>
       </c>
@@ -1979,10 +1973,10 @@
         <v>174</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1995,7 +1989,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>20</v>
       </c>
@@ -2015,10 +2009,10 @@
         <v>176</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2031,7 +2025,7 @@
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>21</v>
       </c>
@@ -2051,10 +2045,10 @@
         <v>178</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2067,7 +2061,7 @@
       </c>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>22</v>
       </c>
@@ -2087,10 +2081,10 @@
         <v>180</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2103,7 +2097,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>23</v>
       </c>
@@ -2123,10 +2117,10 @@
         <v>182</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2139,7 +2133,7 @@
       </c>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>24</v>
       </c>
@@ -2159,10 +2153,10 @@
         <v>184</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2175,12 +2169,12 @@
       </c>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>25</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>167</v>
@@ -2192,13 +2186,13 @@
         <v>169</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -2213,41 +2207,72 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
@@ -2272,73 +2297,43 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -2371,15 +2366,15 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2402,7 +2397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>26</v>
       </c>
@@ -2422,10 +2417,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2436,7 +2431,7 @@
       </c>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>27</v>
       </c>
@@ -2456,10 +2451,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2470,7 +2465,7 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>28</v>
       </c>
@@ -2490,10 +2485,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2504,7 +2499,7 @@
       </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>29</v>
       </c>
@@ -2524,10 +2519,10 @@
         <v>18</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2538,7 +2533,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>30</v>
       </c>
@@ -2558,10 +2553,10 @@
         <v>20</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2572,7 +2567,7 @@
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>31</v>
       </c>
@@ -2592,10 +2587,10 @@
         <v>21</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2606,7 +2601,7 @@
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>32</v>
       </c>
@@ -2626,10 +2621,10 @@
         <v>23</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2640,7 +2635,7 @@
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>33</v>
       </c>
@@ -2660,10 +2655,10 @@
         <v>24</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2674,7 +2669,7 @@
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>34</v>
       </c>
@@ -2694,10 +2689,10 @@
         <v>27</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>35</v>
       </c>
@@ -2717,10 +2712,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2731,7 +2726,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>36</v>
       </c>
@@ -2751,10 +2746,10 @@
         <v>34</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2765,7 +2760,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>37</v>
       </c>
@@ -2785,10 +2780,10 @@
         <v>38</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2799,7 +2794,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>38</v>
       </c>
@@ -2819,10 +2814,10 @@
         <v>38</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2833,12 +2828,12 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>39</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
@@ -2853,15 +2848,15 @@
         <v>45</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>40</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>47</v>
@@ -2876,15 +2871,15 @@
         <v>50</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>41</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
@@ -2899,15 +2894,15 @@
         <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>42</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>12</v>
@@ -2922,10 +2917,10 @@
         <v>55</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2936,12 +2931,12 @@
       </c>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>43</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>12</v>
@@ -2956,10 +2951,10 @@
         <v>34</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2970,12 +2965,12 @@
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>12</v>
@@ -2990,15 +2985,15 @@
         <v>63</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>12</v>
@@ -3013,15 +3008,15 @@
         <v>63</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="126" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>46</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>12</v>
@@ -3036,10 +3031,10 @@
         <v>68</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -3050,12 +3045,12 @@
       </c>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="102" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>47</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>47</v>
@@ -3070,10 +3065,10 @@
         <v>70</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -3084,12 +3079,12 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>48</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>12</v>
@@ -3104,10 +3099,10 @@
         <v>73</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -3120,12 +3115,12 @@
       </c>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="210" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>49</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>12</v>
@@ -3140,10 +3135,10 @@
         <v>77</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -3156,12 +3151,12 @@
       </c>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>50</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>12</v>
@@ -3176,10 +3171,10 @@
         <v>82</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -3190,12 +3185,12 @@
       </c>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>51</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>12</v>
@@ -3210,10 +3205,10 @@
         <v>85</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -3226,12 +3221,12 @@
       </c>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>52</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>12</v>
@@ -3246,10 +3241,10 @@
         <v>88</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -3262,12 +3257,12 @@
       </c>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>53</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>12</v>
@@ -3282,10 +3277,10 @@
         <v>92</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -3298,33 +3293,92 @@
       </c>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
@@ -3349,88 +3403,30 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>